--- a/biology/Botanique/Würzburger_Stein/Würzburger_Stein.xlsx
+++ b/biology/Botanique/Würzburger_Stein/Würzburger_Stein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>W%C3%BCrzburger_Stein</t>
+          <t>Würzburger_Stein</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Würzburger Stein (littéralement pierre de Wurtzbourg) est une appellation viticole allemande située à Wurtzbourg.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>W%C3%BCrzburger_Stein</t>
+          <t>Würzburger_Stein</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appellation Würzburger Stein s'étend sur une côte exposée au sud, située au nord de Wurtzbourg. Le Main coule à son pied. Son sol, typique de la région, est calcaire et date du trias moyen. L'appellation a une altitude comprise entre 210 et 270 m, s'étend sur 85 hectares et a avec un angle d'inclinaison comprise entre 30 et 65 %.
 La LGV Hanovre - Wurtzbourg passe sous le Stein à travers le Steinbergtunnel.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>W%C3%BCrzburger_Stein</t>
+          <t>Würzburger_Stein</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abbé d'Ebrach Alberich Degen (de) y fait planter en 1665 le premier pied de Sylvaner, ramené en 1659 par la famille noble Castell. À partir de 1726, le vin est mis en bouteille à l'hôpital dit Bürgerspital (de). La bouteille traditionnelle franconienne, Bocksbeutel, est déjà utilisée. Dans les caves de l'établissement, on trouve une bouteille de 1540.
 Trois propriétaires se partagent à parts presque égales la majorité de Würzburger Stein : le Bürgerspital, le Juliusspital et le Staatlicher Hofkeller (de). Par ailleurs, les domaines Ludwig Knoll et Reiss possèdent également de petites parcelles. Le Steinharfe, surement la meilleure parcelle, est la propriété du Bürgerspital.
